--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1408.619718701026</v>
+        <v>1800.058073258618</v>
       </c>
       <c r="AB2" t="n">
-        <v>1927.335643042836</v>
+        <v>2462.918868789948</v>
       </c>
       <c r="AC2" t="n">
-        <v>1743.393434303391</v>
+        <v>2227.861348680977</v>
       </c>
       <c r="AD2" t="n">
-        <v>1408619.718701026</v>
+        <v>1800058.073258618</v>
       </c>
       <c r="AE2" t="n">
-        <v>1927335.643042836</v>
+        <v>2462918.868789948</v>
       </c>
       <c r="AF2" t="n">
         <v>2.042232945056692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1743393.434303391</v>
+        <v>2227861.348680977</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1030.039746984893</v>
+        <v>1333.41557552813</v>
       </c>
       <c r="AB3" t="n">
-        <v>1409.345823971222</v>
+        <v>1824.438016581039</v>
       </c>
       <c r="AC3" t="n">
-        <v>1274.839836560695</v>
+        <v>1650.316212893382</v>
       </c>
       <c r="AD3" t="n">
-        <v>1030039.746984893</v>
+        <v>1333415.57552813</v>
       </c>
       <c r="AE3" t="n">
-        <v>1409345.823971222</v>
+        <v>1824438.016581039</v>
       </c>
       <c r="AF3" t="n">
         <v>2.620217715400315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.89583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1274839.836560695</v>
+        <v>1650316.212893382</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>932.6276393783158</v>
+        <v>1206.604749721585</v>
       </c>
       <c r="AB4" t="n">
-        <v>1276.06228082502</v>
+        <v>1650.929850213729</v>
       </c>
       <c r="AC4" t="n">
-        <v>1154.276687707739</v>
+        <v>1493.367422403927</v>
       </c>
       <c r="AD4" t="n">
-        <v>932627.6393783159</v>
+        <v>1206604.749721585</v>
       </c>
       <c r="AE4" t="n">
-        <v>1276062.28082502</v>
+        <v>1650929.850213729</v>
       </c>
       <c r="AF4" t="n">
         <v>2.847674912822299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.10416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1154276.687707738</v>
+        <v>1493367.422403927</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>870.1312300837659</v>
+        <v>1134.38713896439</v>
       </c>
       <c r="AB5" t="n">
-        <v>1190.551936481228</v>
+        <v>1552.118529159607</v>
       </c>
       <c r="AC5" t="n">
-        <v>1076.927330613596</v>
+        <v>1403.986515148651</v>
       </c>
       <c r="AD5" t="n">
-        <v>870131.2300837659</v>
+        <v>1134387.13896439</v>
       </c>
       <c r="AE5" t="n">
-        <v>1190551.936481228</v>
+        <v>1552118.529159607</v>
       </c>
       <c r="AF5" t="n">
         <v>2.979484369833927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.68229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1076927.330613596</v>
+        <v>1403986.515148651</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>841.4805602301606</v>
+        <v>1105.702303692004</v>
       </c>
       <c r="AB6" t="n">
-        <v>1151.350826009178</v>
+        <v>1512.87067205431</v>
       </c>
       <c r="AC6" t="n">
-        <v>1041.467519105895</v>
+        <v>1368.48441844077</v>
       </c>
       <c r="AD6" t="n">
-        <v>841480.5602301606</v>
+        <v>1105702.303692004</v>
       </c>
       <c r="AE6" t="n">
-        <v>1151350.826009179</v>
+        <v>1512870.67205431</v>
       </c>
       <c r="AF6" t="n">
         <v>3.041441444277435e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.61458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1041467.519105895</v>
+        <v>1368484.41844077</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>813.9175911193555</v>
+        <v>1068.384978729632</v>
       </c>
       <c r="AB7" t="n">
-        <v>1113.637955679398</v>
+        <v>1461.811461716606</v>
       </c>
       <c r="AC7" t="n">
-        <v>1007.353912190043</v>
+        <v>1322.298227475645</v>
       </c>
       <c r="AD7" t="n">
-        <v>813917.5911193555</v>
+        <v>1068384.978729632</v>
       </c>
       <c r="AE7" t="n">
-        <v>1113637.955679398</v>
+        <v>1461811.461716606</v>
       </c>
       <c r="AF7" t="n">
         <v>3.098938573673453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.65104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1007353.912190043</v>
+        <v>1322298.227475645</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>798.3692836630503</v>
+        <v>1043.014995614054</v>
       </c>
       <c r="AB8" t="n">
-        <v>1092.364075474768</v>
+        <v>1427.099131573211</v>
       </c>
       <c r="AC8" t="n">
-        <v>988.1103812540644</v>
+        <v>1290.898793402074</v>
       </c>
       <c r="AD8" t="n">
-        <v>798369.2836630503</v>
+        <v>1043014.995614054</v>
       </c>
       <c r="AE8" t="n">
-        <v>1092364.075474768</v>
+        <v>1427099.131573211</v>
       </c>
       <c r="AF8" t="n">
         <v>3.135883794134417e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.05208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>988110.3812540644</v>
+        <v>1290898.793402074</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>785.571628250384</v>
+        <v>1040.004850441879</v>
       </c>
       <c r="AB9" t="n">
-        <v>1074.853758746448</v>
+        <v>1422.980518150408</v>
       </c>
       <c r="AC9" t="n">
-        <v>972.2712245784112</v>
+        <v>1287.173254663833</v>
       </c>
       <c r="AD9" t="n">
-        <v>785571.628250384</v>
+        <v>1040004.850441879</v>
       </c>
       <c r="AE9" t="n">
-        <v>1074853.758746448</v>
+        <v>1422980.518150408</v>
       </c>
       <c r="AF9" t="n">
         <v>3.146069344310441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.89583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>972271.2245784112</v>
+        <v>1287173.254663833</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1171.046193358851</v>
+        <v>1519.443466506401</v>
       </c>
       <c r="AB2" t="n">
-        <v>1602.277064665446</v>
+        <v>2078.96958398884</v>
       </c>
       <c r="AC2" t="n">
-        <v>1449.357990423759</v>
+        <v>1880.555644745082</v>
       </c>
       <c r="AD2" t="n">
-        <v>1171046.193358851</v>
+        <v>1519443.466506401</v>
       </c>
       <c r="AE2" t="n">
-        <v>1602277.064665446</v>
+        <v>2078969.58398884</v>
       </c>
       <c r="AF2" t="n">
         <v>2.49427400052027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1449357.990423759</v>
+        <v>1880555.644745082</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>911.2230824763832</v>
+        <v>1191.823357184252</v>
       </c>
       <c r="AB3" t="n">
-        <v>1246.77562176939</v>
+        <v>1630.705296835136</v>
       </c>
       <c r="AC3" t="n">
-        <v>1127.785106288294</v>
+        <v>1475.073072014449</v>
       </c>
       <c r="AD3" t="n">
-        <v>911223.0824763832</v>
+        <v>1191823.357184252</v>
       </c>
       <c r="AE3" t="n">
-        <v>1246775.62176939</v>
+        <v>1630705.296835136</v>
       </c>
       <c r="AF3" t="n">
         <v>3.055408164135715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.19791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1127785.106288294</v>
+        <v>1475073.072014449</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>826.639059267676</v>
+        <v>1087.878235675329</v>
       </c>
       <c r="AB4" t="n">
-        <v>1131.044029631495</v>
+        <v>1488.482995851511</v>
       </c>
       <c r="AC4" t="n">
-        <v>1023.09877487373</v>
+        <v>1346.424267826448</v>
       </c>
       <c r="AD4" t="n">
-        <v>826639.059267676</v>
+        <v>1087878.235675329</v>
       </c>
       <c r="AE4" t="n">
-        <v>1131044.029631495</v>
+        <v>1488482.995851511</v>
       </c>
       <c r="AF4" t="n">
         <v>3.274876315094958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.44791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1023098.77487373</v>
+        <v>1346424.267826448</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>780.4661380095007</v>
+        <v>1032.126250493531</v>
       </c>
       <c r="AB5" t="n">
-        <v>1067.868201760539</v>
+        <v>1412.200670121779</v>
       </c>
       <c r="AC5" t="n">
-        <v>965.9523593469464</v>
+        <v>1277.422220201445</v>
       </c>
       <c r="AD5" t="n">
-        <v>780466.1380095007</v>
+        <v>1032126.250493531</v>
       </c>
       <c r="AE5" t="n">
-        <v>1067868.201760539</v>
+        <v>1412200.670121779</v>
       </c>
       <c r="AF5" t="n">
         <v>3.386061201668662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.72916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>965952.3593469465</v>
+        <v>1277422.220201445</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>751.5812665645043</v>
+        <v>1003.207213629754</v>
       </c>
       <c r="AB6" t="n">
-        <v>1028.346646338902</v>
+        <v>1372.632368066895</v>
       </c>
       <c r="AC6" t="n">
-        <v>930.2026857059</v>
+        <v>1241.630261360218</v>
       </c>
       <c r="AD6" t="n">
-        <v>751581.2665645042</v>
+        <v>1003207.213629754</v>
       </c>
       <c r="AE6" t="n">
-        <v>1028346.646338903</v>
+        <v>1372632.368066895</v>
       </c>
       <c r="AF6" t="n">
         <v>3.449501214055318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>930202.6857059</v>
+        <v>1241630.261360218</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>749.8866837624673</v>
+        <v>1001.512630827717</v>
       </c>
       <c r="AB7" t="n">
-        <v>1026.028043389439</v>
+        <v>1370.313765117431</v>
       </c>
       <c r="AC7" t="n">
-        <v>928.1053669677533</v>
+        <v>1239.532942622071</v>
       </c>
       <c r="AD7" t="n">
-        <v>749886.6837624673</v>
+        <v>1001512.630827717</v>
       </c>
       <c r="AE7" t="n">
-        <v>1026028.043389439</v>
+        <v>1370313.765117431</v>
       </c>
       <c r="AF7" t="n">
         <v>3.456887161443369e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>928105.3669677533</v>
+        <v>1239532.942622071</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>734.165938629502</v>
+        <v>996.0510965042829</v>
       </c>
       <c r="AB2" t="n">
-        <v>1004.518226348188</v>
+        <v>1362.84105291022</v>
       </c>
       <c r="AC2" t="n">
-        <v>908.648416675702</v>
+        <v>1232.773415579899</v>
       </c>
       <c r="AD2" t="n">
-        <v>734165.938629502</v>
+        <v>996051.0965042829</v>
       </c>
       <c r="AE2" t="n">
-        <v>1004518.226348188</v>
+        <v>1362841.05291022</v>
       </c>
       <c r="AF2" t="n">
         <v>4.450712878855158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>908648.4166757021</v>
+        <v>1232773.415579899</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.7674275024343</v>
+        <v>913.8743020900578</v>
       </c>
       <c r="AB3" t="n">
-        <v>917.7735864792224</v>
+        <v>1250.403137408375</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.1825634889633</v>
+        <v>1131.066416925944</v>
       </c>
       <c r="AD3" t="n">
-        <v>670767.4275024344</v>
+        <v>913874.3020900578</v>
       </c>
       <c r="AE3" t="n">
-        <v>917773.5864792224</v>
+        <v>1250403.137408375</v>
       </c>
       <c r="AF3" t="n">
         <v>4.753360986432264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>830182.5634889633</v>
+        <v>1131066.416925944</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>874.3044299492648</v>
+        <v>1158.645883158365</v>
       </c>
       <c r="AB2" t="n">
-        <v>1196.261892645788</v>
+        <v>1585.310413186065</v>
       </c>
       <c r="AC2" t="n">
-        <v>1082.092336575784</v>
+        <v>1434.010612348726</v>
       </c>
       <c r="AD2" t="n">
-        <v>874304.4299492647</v>
+        <v>1158645.883158365</v>
       </c>
       <c r="AE2" t="n">
-        <v>1196261.892645788</v>
+        <v>1585310.413186065</v>
       </c>
       <c r="AF2" t="n">
         <v>3.548857564002697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.48958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1082092.336575784</v>
+        <v>1434010.612348726</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>731.2174646969281</v>
+        <v>977.662802810894</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000.483994236152</v>
+        <v>1337.681378244662</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.9992060143577</v>
+        <v>1210.014944952596</v>
       </c>
       <c r="AD3" t="n">
-        <v>731217.4646969282</v>
+        <v>977662.8028108941</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000483.994236152</v>
+        <v>1337681.378244662</v>
       </c>
       <c r="AF3" t="n">
         <v>4.057659204375313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.14583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>904999.2060143577</v>
+        <v>1210014.944952596</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>692.2802280490536</v>
+        <v>938.758720551943</v>
       </c>
       <c r="AB4" t="n">
-        <v>947.2083492648844</v>
+        <v>1284.451096570988</v>
       </c>
       <c r="AC4" t="n">
-        <v>856.8081138263108</v>
+        <v>1161.864886652688</v>
       </c>
       <c r="AD4" t="n">
-        <v>692280.2280490536</v>
+        <v>938758.7205519431</v>
       </c>
       <c r="AE4" t="n">
-        <v>947208.3492648844</v>
+        <v>1284451.096570988</v>
       </c>
       <c r="AF4" t="n">
         <v>4.172603895808387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.73958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>856808.1138263107</v>
+        <v>1161864.886652688</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.6918234532635</v>
+        <v>906.4070587774858</v>
       </c>
       <c r="AB2" t="n">
-        <v>898.514724047322</v>
+        <v>1240.186125676588</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.7617398575806</v>
+        <v>1121.824502454174</v>
       </c>
       <c r="AD2" t="n">
-        <v>656691.8234532635</v>
+        <v>906407.0587774857</v>
       </c>
       <c r="AE2" t="n">
-        <v>898514.7240473221</v>
+        <v>1240186.125676588</v>
       </c>
       <c r="AF2" t="n">
         <v>5.314546683180282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>812761.7398575805</v>
+        <v>1121824.502454174</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>656.156244514383</v>
+        <v>896.5870822585043</v>
       </c>
       <c r="AB3" t="n">
-        <v>897.7819213150708</v>
+        <v>1226.75000057653</v>
       </c>
       <c r="AC3" t="n">
-        <v>812.0988747896</v>
+        <v>1109.670702275945</v>
       </c>
       <c r="AD3" t="n">
-        <v>656156.244514383</v>
+        <v>896587.0822585043</v>
       </c>
       <c r="AE3" t="n">
-        <v>897781.9213150708</v>
+        <v>1226750.00057653</v>
       </c>
       <c r="AF3" t="n">
         <v>5.339216469410478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.43229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>812098.8747896</v>
+        <v>1109670.702275945</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1227.345584316115</v>
+        <v>1586.473449916363</v>
       </c>
       <c r="AB2" t="n">
-        <v>1679.308375127009</v>
+        <v>2170.682964444512</v>
       </c>
       <c r="AC2" t="n">
-        <v>1519.037540728994</v>
+        <v>1963.516028890602</v>
       </c>
       <c r="AD2" t="n">
-        <v>1227345.584316115</v>
+        <v>1586473.449916363</v>
       </c>
       <c r="AE2" t="n">
-        <v>1679308.375127009</v>
+        <v>2170682.964444513</v>
       </c>
       <c r="AF2" t="n">
         <v>2.370695460694161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1519037.540728994</v>
+        <v>1963516.028890603</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>941.810447328726</v>
+        <v>1223.267894368217</v>
       </c>
       <c r="AB3" t="n">
-        <v>1288.626603779666</v>
+        <v>1673.729099845311</v>
       </c>
       <c r="AC3" t="n">
-        <v>1165.641889313731</v>
+        <v>1513.990743649619</v>
       </c>
       <c r="AD3" t="n">
-        <v>941810.4473287261</v>
+        <v>1223267.894368217</v>
       </c>
       <c r="AE3" t="n">
-        <v>1288626.603779666</v>
+        <v>1673729.099845311</v>
       </c>
       <c r="AF3" t="n">
         <v>2.93983226284349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.00520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1165641.889313731</v>
+        <v>1513990.743649619</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>856.9278677400074</v>
+        <v>1118.967457381845</v>
       </c>
       <c r="AB4" t="n">
-        <v>1172.486513631261</v>
+        <v>1531.020640550028</v>
       </c>
       <c r="AC4" t="n">
-        <v>1060.58604636545</v>
+        <v>1384.902179416897</v>
       </c>
       <c r="AD4" t="n">
-        <v>856927.8677400074</v>
+        <v>1118967.457381845</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172486.513631261</v>
+        <v>1531020.640550028</v>
       </c>
       <c r="AF4" t="n">
         <v>3.148786039028347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.22916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1060586.04636545</v>
+        <v>1384902.179416897</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>809.8984593503289</v>
+        <v>1062.22912029334</v>
       </c>
       <c r="AB5" t="n">
-        <v>1108.138802281436</v>
+        <v>1453.388744626764</v>
       </c>
       <c r="AC5" t="n">
-        <v>1002.379590274272</v>
+        <v>1314.679362683499</v>
       </c>
       <c r="AD5" t="n">
-        <v>809898.4593503289</v>
+        <v>1062229.12029334</v>
       </c>
       <c r="AE5" t="n">
-        <v>1108138.802281436</v>
+        <v>1453388.744626764</v>
       </c>
       <c r="AF5" t="n">
         <v>3.265650855028255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1002379.590274272</v>
+        <v>1314679.362683499</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.3615224156264</v>
+        <v>1021.017420078591</v>
       </c>
       <c r="AB6" t="n">
-        <v>1064.988573855912</v>
+        <v>1397.001078261049</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.3475590879547</v>
+        <v>1263.673256055141</v>
       </c>
       <c r="AD6" t="n">
-        <v>778361.5224156263</v>
+        <v>1021017.420078591</v>
       </c>
       <c r="AE6" t="n">
-        <v>1064988.573855912</v>
+        <v>1397001.078261049</v>
       </c>
       <c r="AF6" t="n">
         <v>3.34055759832335e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>963347.5590879547</v>
+        <v>1263673.256055141</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>759.4501646319868</v>
+        <v>1011.813979963921</v>
       </c>
       <c r="AB7" t="n">
-        <v>1039.113219826114</v>
+        <v>1384.408525469035</v>
       </c>
       <c r="AC7" t="n">
-        <v>939.9417125304726</v>
+        <v>1252.282518827839</v>
       </c>
       <c r="AD7" t="n">
-        <v>759450.1646319868</v>
+        <v>1011813.979963921</v>
       </c>
       <c r="AE7" t="n">
-        <v>1039113.219826114</v>
+        <v>1384408.525469035</v>
       </c>
       <c r="AF7" t="n">
         <v>3.366620511583241e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>939941.7125304727</v>
+        <v>1252282.518827839</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.620181559578</v>
+        <v>898.6015267187814</v>
       </c>
       <c r="AB2" t="n">
-        <v>890.2072357464458</v>
+        <v>1229.506252358098</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.2471065805069</v>
+        <v>1112.163901255904</v>
       </c>
       <c r="AD2" t="n">
-        <v>650620.1815595779</v>
+        <v>898601.5267187814</v>
       </c>
       <c r="AE2" t="n">
-        <v>890207.2357464458</v>
+        <v>1229506.252358098</v>
       </c>
       <c r="AF2" t="n">
         <v>5.725230203343105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.47395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>805247.1065805069</v>
+        <v>1112163.901255904</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1019.246169374422</v>
+        <v>1335.596483395431</v>
       </c>
       <c r="AB2" t="n">
-        <v>1394.577574905539</v>
+        <v>1827.422030939945</v>
       </c>
       <c r="AC2" t="n">
-        <v>1261.481048458473</v>
+        <v>1653.015437109965</v>
       </c>
       <c r="AD2" t="n">
-        <v>1019246.169374422</v>
+        <v>1335596.483395431</v>
       </c>
       <c r="AE2" t="n">
-        <v>1394577.574905539</v>
+        <v>1827422.030939945</v>
       </c>
       <c r="AF2" t="n">
         <v>2.939348416643669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1261481.048458473</v>
+        <v>1653015.437109965</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>817.4162964542613</v>
+        <v>1085.824391557305</v>
       </c>
       <c r="AB3" t="n">
-        <v>1118.425038670602</v>
+        <v>1485.672835720023</v>
       </c>
       <c r="AC3" t="n">
-        <v>1011.68412269928</v>
+        <v>1343.882305433824</v>
       </c>
       <c r="AD3" t="n">
-        <v>817416.2964542613</v>
+        <v>1085824.391557305</v>
       </c>
       <c r="AE3" t="n">
-        <v>1118425.038670602</v>
+        <v>1485672.835720023</v>
       </c>
       <c r="AF3" t="n">
         <v>3.480809222529749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1011684.12269928</v>
+        <v>1343882.305433824</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>747.0364562034842</v>
+        <v>996.2003439316375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1022.128236300073</v>
+        <v>1363.045259824658</v>
       </c>
       <c r="AC4" t="n">
-        <v>924.5777519935826</v>
+        <v>1232.958133273029</v>
       </c>
       <c r="AD4" t="n">
-        <v>747036.4562034842</v>
+        <v>996200.3439316375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1022128.236300073</v>
+        <v>1363045.259824658</v>
       </c>
       <c r="AF4" t="n">
         <v>3.703603385407256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>924577.7519935826</v>
+        <v>1232958.133273029</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.9421650019326</v>
+        <v>971.1733725377903</v>
       </c>
       <c r="AB5" t="n">
-        <v>987.7931199961158</v>
+        <v>1328.802253451543</v>
       </c>
       <c r="AC5" t="n">
-        <v>893.519531000037</v>
+        <v>1201.983231367803</v>
       </c>
       <c r="AD5" t="n">
-        <v>721942.1650019326</v>
+        <v>971173.3725377903</v>
       </c>
       <c r="AE5" t="n">
-        <v>987793.1199961158</v>
+        <v>1328802.253451543</v>
       </c>
       <c r="AF5" t="n">
         <v>3.760108631737309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.66145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>893519.531000037</v>
+        <v>1201983.231367803</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>723.1117312374499</v>
+        <v>972.3429387733078</v>
       </c>
       <c r="AB6" t="n">
-        <v>989.3933721171713</v>
+        <v>1330.402505572598</v>
       </c>
       <c r="AC6" t="n">
-        <v>894.967057304627</v>
+        <v>1203.430757672393</v>
       </c>
       <c r="AD6" t="n">
-        <v>723111.7312374499</v>
+        <v>972342.9387733077</v>
       </c>
       <c r="AE6" t="n">
-        <v>989393.3721171713</v>
+        <v>1330402.505572598</v>
       </c>
       <c r="AF6" t="n">
         <v>3.760180338902703e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.66145833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>894967.057304627</v>
+        <v>1203430.757672393</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1115.339827513998</v>
+        <v>1453.025496427704</v>
       </c>
       <c r="AB2" t="n">
-        <v>1526.057157325105</v>
+        <v>1988.093587173127</v>
       </c>
       <c r="AC2" t="n">
-        <v>1380.412404064669</v>
+        <v>1798.352725520197</v>
       </c>
       <c r="AD2" t="n">
-        <v>1115339.827513998</v>
+        <v>1453025.496427704</v>
       </c>
       <c r="AE2" t="n">
-        <v>1526057.157325105</v>
+        <v>1988093.587173127</v>
       </c>
       <c r="AF2" t="n">
         <v>2.632414986638772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1380412.404064669</v>
+        <v>1798352.725520197</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>880.0318363298094</v>
+        <v>1150.160883239363</v>
       </c>
       <c r="AB3" t="n">
-        <v>1204.098382730986</v>
+        <v>1573.700861965108</v>
       </c>
       <c r="AC3" t="n">
-        <v>1089.180923045834</v>
+        <v>1423.509060402189</v>
       </c>
       <c r="AD3" t="n">
-        <v>880031.8363298094</v>
+        <v>1150160.883239363</v>
       </c>
       <c r="AE3" t="n">
-        <v>1204098.382730986</v>
+        <v>1573700.861965108</v>
       </c>
       <c r="AF3" t="n">
         <v>3.184117510450678e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.36458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1089180.923045834</v>
+        <v>1423509.060402189</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.3430353433797</v>
+        <v>1058.854146208427</v>
       </c>
       <c r="AB4" t="n">
-        <v>1092.3281613658</v>
+        <v>1448.770956190438</v>
       </c>
       <c r="AC4" t="n">
-        <v>988.077894737251</v>
+        <v>1310.50228949443</v>
       </c>
       <c r="AD4" t="n">
-        <v>798343.0353433797</v>
+        <v>1058854.146208427</v>
       </c>
       <c r="AE4" t="n">
-        <v>1092328.161365801</v>
+        <v>1448770.956190438</v>
       </c>
       <c r="AF4" t="n">
         <v>3.398612087552865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>988077.894737251</v>
+        <v>1310502.28949443</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>761.5533555449047</v>
+        <v>1012.346056168817</v>
       </c>
       <c r="AB5" t="n">
-        <v>1041.990898419403</v>
+        <v>1385.13653560612</v>
       </c>
       <c r="AC5" t="n">
-        <v>942.5447495176654</v>
+        <v>1252.941048699209</v>
       </c>
       <c r="AD5" t="n">
-        <v>761553.3555449047</v>
+        <v>1012346.056168817</v>
       </c>
       <c r="AE5" t="n">
-        <v>1041990.898419403</v>
+        <v>1385136.53560612</v>
       </c>
       <c r="AF5" t="n">
         <v>3.512932485383599e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.18229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>942544.7495176655</v>
+        <v>1252941.048699209</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>740.3936697441155</v>
+        <v>991.2536901757326</v>
       </c>
       <c r="AB6" t="n">
-        <v>1013.039282807309</v>
+        <v>1356.277029924868</v>
       </c>
       <c r="AC6" t="n">
-        <v>916.3562354657419</v>
+        <v>1226.835853735604</v>
       </c>
       <c r="AD6" t="n">
-        <v>740393.6697441156</v>
+        <v>991253.6901757326</v>
       </c>
       <c r="AE6" t="n">
-        <v>1013039.282807309</v>
+        <v>1356277.029924867</v>
       </c>
       <c r="AF6" t="n">
         <v>3.541901775064803e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>916356.2354657418</v>
+        <v>1226835.853735604</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1345.324862336249</v>
+        <v>1725.972930173982</v>
       </c>
       <c r="AB2" t="n">
-        <v>1840.73282819256</v>
+        <v>2361.552307615709</v>
       </c>
       <c r="AC2" t="n">
-        <v>1665.055870554612</v>
+        <v>2136.169069836345</v>
       </c>
       <c r="AD2" t="n">
-        <v>1345324.862336249</v>
+        <v>1725972.930173982</v>
       </c>
       <c r="AE2" t="n">
-        <v>1840732.82819256</v>
+        <v>2361552.307615709</v>
       </c>
       <c r="AF2" t="n">
         <v>2.146025836727564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1665055.870554612</v>
+        <v>2136169.069836346</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>997.647303502785</v>
+        <v>1300.19269152635</v>
       </c>
       <c r="AB3" t="n">
-        <v>1365.025053745253</v>
+        <v>1778.981000999604</v>
       </c>
       <c r="AC3" t="n">
-        <v>1234.748978440501</v>
+        <v>1609.197551079718</v>
       </c>
       <c r="AD3" t="n">
-        <v>997647.303502785</v>
+        <v>1300192.69152635</v>
       </c>
       <c r="AE3" t="n">
-        <v>1365025.053745253</v>
+        <v>1778981.000999604</v>
       </c>
       <c r="AF3" t="n">
         <v>2.717204168121049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.95833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1234748.978440501</v>
+        <v>1609197.551079718</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>903.6087358608582</v>
+        <v>1176.832464565186</v>
       </c>
       <c r="AB4" t="n">
-        <v>1236.357336808764</v>
+        <v>1610.194096202222</v>
       </c>
       <c r="AC4" t="n">
-        <v>1118.361127822156</v>
+        <v>1456.519431582289</v>
       </c>
       <c r="AD4" t="n">
-        <v>903608.7358608582</v>
+        <v>1176832.464565186</v>
       </c>
       <c r="AE4" t="n">
-        <v>1236357.336808764</v>
+        <v>1610194.096202222</v>
       </c>
       <c r="AF4" t="n">
         <v>2.942094483885693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1118361.127822156</v>
+        <v>1456519.431582289</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>837.8387908693072</v>
+        <v>1101.367004404568</v>
       </c>
       <c r="AB5" t="n">
-        <v>1146.367996506134</v>
+        <v>1506.938924309333</v>
       </c>
       <c r="AC5" t="n">
-        <v>1036.960243857176</v>
+        <v>1363.118788375313</v>
       </c>
       <c r="AD5" t="n">
-        <v>837838.7908693072</v>
+        <v>1101367.004404568</v>
       </c>
       <c r="AE5" t="n">
-        <v>1146367.996506134</v>
+        <v>1506938.924309333</v>
       </c>
       <c r="AF5" t="n">
         <v>3.092041870894841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.82291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1036960.243857176</v>
+        <v>1363118.788375313</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>823.2047007492666</v>
+        <v>1076.936924918833</v>
       </c>
       <c r="AB6" t="n">
-        <v>1126.344988793403</v>
+        <v>1473.512611777909</v>
       </c>
       <c r="AC6" t="n">
-        <v>1018.84820389808</v>
+        <v>1332.882636197764</v>
       </c>
       <c r="AD6" t="n">
-        <v>823204.7007492667</v>
+        <v>1076936.924918832</v>
       </c>
       <c r="AE6" t="n">
-        <v>1126344.988793403</v>
+        <v>1473512.611777909</v>
       </c>
       <c r="AF6" t="n">
         <v>3.140034879457474e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1018848.20389808</v>
+        <v>1332882.636197764</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>796.0054429478083</v>
+        <v>1049.703501698593</v>
       </c>
       <c r="AB7" t="n">
-        <v>1089.129764322882</v>
+        <v>1436.25064067414</v>
       </c>
       <c r="AC7" t="n">
-        <v>985.1847482191298</v>
+        <v>1299.176895318634</v>
       </c>
       <c r="AD7" t="n">
-        <v>796005.4429478083</v>
+        <v>1049703.501698593</v>
       </c>
       <c r="AE7" t="n">
-        <v>1089129.764322882</v>
+        <v>1436250.64067414</v>
       </c>
       <c r="AF7" t="n">
         <v>3.18661270956249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.28645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>985184.7482191297</v>
+        <v>1299176.895318634</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>777.7127393564228</v>
+        <v>1031.478117914912</v>
       </c>
       <c r="AB8" t="n">
-        <v>1064.100880252022</v>
+        <v>1411.313866534121</v>
       </c>
       <c r="AC8" t="n">
-        <v>962.5445857157332</v>
+        <v>1276.620051903556</v>
       </c>
       <c r="AD8" t="n">
-        <v>777712.7393564228</v>
+        <v>1031478.117914912</v>
       </c>
       <c r="AE8" t="n">
-        <v>1064100.880252022</v>
+        <v>1411313.866534121</v>
       </c>
       <c r="AF8" t="n">
         <v>3.208394151910146e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.94791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>962544.5857157332</v>
+        <v>1276620.051903556</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>779.2377776527652</v>
+        <v>1033.003156211254</v>
       </c>
       <c r="AB9" t="n">
-        <v>1066.187504929019</v>
+        <v>1413.400491211118</v>
       </c>
       <c r="AC9" t="n">
-        <v>964.4320658621539</v>
+        <v>1278.507532049977</v>
       </c>
       <c r="AD9" t="n">
-        <v>779237.7776527652</v>
+        <v>1033003.156211255</v>
       </c>
       <c r="AE9" t="n">
-        <v>1066187.504929019</v>
+        <v>1413400.491211118</v>
       </c>
       <c r="AF9" t="n">
         <v>3.20765579793226e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.94791666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>964432.0658621539</v>
+        <v>1278507.532049977</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>925.7244602667715</v>
+        <v>1220.700811286893</v>
       </c>
       <c r="AB2" t="n">
-        <v>1266.617046617836</v>
+        <v>1670.216703521731</v>
       </c>
       <c r="AC2" t="n">
-        <v>1145.732893396819</v>
+        <v>1510.813565501483</v>
       </c>
       <c r="AD2" t="n">
-        <v>925724.4602667715</v>
+        <v>1220700.811286893</v>
       </c>
       <c r="AE2" t="n">
-        <v>1266617.046617836</v>
+        <v>1670216.703521731</v>
       </c>
       <c r="AF2" t="n">
         <v>3.319128796597768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.18229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1145732.893396819</v>
+        <v>1510813.565501482</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>754.0155943621922</v>
+        <v>1010.980297233194</v>
       </c>
       <c r="AB3" t="n">
-        <v>1031.677401026662</v>
+        <v>1383.267843977369</v>
       </c>
       <c r="AC3" t="n">
-        <v>933.215557841003</v>
+        <v>1251.25070237678</v>
       </c>
       <c r="AD3" t="n">
-        <v>754015.5943621922</v>
+        <v>1010980.297233194</v>
       </c>
       <c r="AE3" t="n">
-        <v>1031677.401026662</v>
+        <v>1383267.843977369</v>
       </c>
       <c r="AF3" t="n">
         <v>3.845252630478753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>933215.5578410031</v>
+        <v>1251250.70237678</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>703.1725263743144</v>
+        <v>950.6174872561106</v>
       </c>
       <c r="AB4" t="n">
-        <v>962.1116723677939</v>
+        <v>1300.676784347493</v>
       </c>
       <c r="AC4" t="n">
-        <v>870.289084689224</v>
+        <v>1176.5420175607</v>
       </c>
       <c r="AD4" t="n">
-        <v>703172.5263743144</v>
+        <v>950617.4872561106</v>
       </c>
       <c r="AE4" t="n">
-        <v>962111.6723677939</v>
+        <v>1300676.784347493</v>
       </c>
       <c r="AF4" t="n">
         <v>4.016382864242928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.73958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>870289.0846892239</v>
+        <v>1176542.0175607</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>704.0323405388368</v>
+        <v>951.4773014206329</v>
       </c>
       <c r="AB5" t="n">
-        <v>963.2881080400172</v>
+        <v>1301.853220019716</v>
       </c>
       <c r="AC5" t="n">
-        <v>871.3532429920281</v>
+        <v>1177.606175863504</v>
       </c>
       <c r="AD5" t="n">
-        <v>704032.3405388368</v>
+        <v>951477.3014206329</v>
       </c>
       <c r="AE5" t="n">
-        <v>963288.1080400172</v>
+        <v>1301853.220019717</v>
       </c>
       <c r="AF5" t="n">
         <v>4.01116688221874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>871353.2429920281</v>
+        <v>1177606.175863504</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.336331768909</v>
+        <v>1047.460980864535</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.163571603059</v>
+        <v>1433.182324735943</v>
       </c>
       <c r="AC2" t="n">
-        <v>970.742346523795</v>
+        <v>1296.401415147171</v>
       </c>
       <c r="AD2" t="n">
-        <v>784336.331768909</v>
+        <v>1047460.980864535</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073163.571603059</v>
+        <v>1433182.324735943</v>
       </c>
       <c r="AF2" t="n">
         <v>4.100629181528333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>970742.346523795</v>
+        <v>1296401.415147171</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>681.1709875152502</v>
+        <v>916.1270019237162</v>
       </c>
       <c r="AB3" t="n">
-        <v>932.008196261432</v>
+        <v>1253.485380702888</v>
       </c>
       <c r="AC3" t="n">
-        <v>843.0586420919592</v>
+        <v>1133.854495246385</v>
       </c>
       <c r="AD3" t="n">
-        <v>681170.9875152502</v>
+        <v>916127.0019237162</v>
       </c>
       <c r="AE3" t="n">
-        <v>932008.196261432</v>
+        <v>1253485.380702888</v>
       </c>
       <c r="AF3" t="n">
         <v>4.533412803749828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>843058.6420919592</v>
+        <v>1133854.495246385</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.5176454976264</v>
+        <v>917.4736599060923</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.8507531232764</v>
+        <v>1255.327937564733</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.7253479129539</v>
+        <v>1135.52120106738</v>
       </c>
       <c r="AD4" t="n">
-        <v>682517.6454976264</v>
+        <v>917473.6599060923</v>
       </c>
       <c r="AE4" t="n">
-        <v>933850.7531232764</v>
+        <v>1255327.937564733</v>
       </c>
       <c r="AF4" t="n">
         <v>4.53254060781629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>844725.3479129539</v>
+        <v>1135521.20106738</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.5146399391482</v>
+        <v>943.6401095704944</v>
       </c>
       <c r="AB2" t="n">
-        <v>947.5290819544343</v>
+        <v>1291.130028377854</v>
       </c>
       <c r="AC2" t="n">
-        <v>857.0982362381213</v>
+        <v>1167.906390581847</v>
       </c>
       <c r="AD2" t="n">
-        <v>692514.6399391482</v>
+        <v>943640.1095704944</v>
       </c>
       <c r="AE2" t="n">
-        <v>947529.0819544343</v>
+        <v>1291130.028377854</v>
       </c>
       <c r="AF2" t="n">
         <v>4.874254193938954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>857098.2362381213</v>
+        <v>1167906.390581847</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.8137815027067</v>
+        <v>900.7347689428859</v>
       </c>
       <c r="AB3" t="n">
-        <v>901.4180806647526</v>
+        <v>1232.425048481123</v>
       </c>
       <c r="AC3" t="n">
-        <v>815.3880041943297</v>
+        <v>1114.804131573503</v>
       </c>
       <c r="AD3" t="n">
-        <v>658813.7815027067</v>
+        <v>900734.7689428859</v>
       </c>
       <c r="AE3" t="n">
-        <v>901418.0806647525</v>
+        <v>1232425.048481123</v>
       </c>
       <c r="AF3" t="n">
         <v>5.026176710212402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.75520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>815388.0041943297</v>
+        <v>1114804.131573503</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>654.0045401598744</v>
+        <v>909.1649221758988</v>
       </c>
       <c r="AB2" t="n">
-        <v>894.8378644907353</v>
+        <v>1243.959556046643</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.4357946165695</v>
+        <v>1125.237801925754</v>
       </c>
       <c r="AD2" t="n">
-        <v>654004.5401598744</v>
+        <v>909164.9221758988</v>
       </c>
       <c r="AE2" t="n">
-        <v>894837.8644907353</v>
+        <v>1243959.556046644</v>
       </c>
       <c r="AF2" t="n">
         <v>6.203873261891318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>809435.7946165695</v>
+        <v>1125237.801925753</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1070.187541513044</v>
+        <v>1387.560417629726</v>
       </c>
       <c r="AB2" t="n">
-        <v>1464.277807640328</v>
+        <v>1898.52137824629</v>
       </c>
       <c r="AC2" t="n">
-        <v>1324.529188805945</v>
+        <v>1717.329162497953</v>
       </c>
       <c r="AD2" t="n">
-        <v>1070187.541513044</v>
+        <v>1387560.417629726</v>
       </c>
       <c r="AE2" t="n">
-        <v>1464277.807640328</v>
+        <v>1898521.37824629</v>
       </c>
       <c r="AF2" t="n">
         <v>2.784092766472179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1324529.188805945</v>
+        <v>1717329.162497953</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>847.7688560871471</v>
+        <v>1117.005390823963</v>
       </c>
       <c r="AB3" t="n">
-        <v>1159.954749820741</v>
+        <v>1528.336054525266</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.250296504565</v>
+        <v>1382.473806514499</v>
       </c>
       <c r="AD3" t="n">
-        <v>847768.8560871471</v>
+        <v>1117005.390823963</v>
       </c>
       <c r="AE3" t="n">
-        <v>1159954.749820741</v>
+        <v>1528336.054525266</v>
       </c>
       <c r="AF3" t="n">
         <v>3.330625125613916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.42708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049250.296504565</v>
+        <v>1382473.806514499</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>779.6898038702633</v>
+        <v>1029.719633641425</v>
       </c>
       <c r="AB4" t="n">
-        <v>1066.805987141789</v>
+        <v>1408.907830772285</v>
       </c>
       <c r="AC4" t="n">
-        <v>964.9915210005825</v>
+        <v>1274.443644817938</v>
       </c>
       <c r="AD4" t="n">
-        <v>779689.8038702633</v>
+        <v>1029719.633641425</v>
       </c>
       <c r="AE4" t="n">
-        <v>1066805.987141789</v>
+        <v>1408907.830772285</v>
       </c>
       <c r="AF4" t="n">
         <v>3.531964501011477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.30208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>964991.5210005825</v>
+        <v>1274443.644817938</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>734.7291078412693</v>
+        <v>984.7920920013548</v>
       </c>
       <c r="AB5" t="n">
-        <v>1005.288779309001</v>
+        <v>1347.435986237091</v>
       </c>
       <c r="AC5" t="n">
-        <v>909.3454291434123</v>
+        <v>1218.838586848907</v>
       </c>
       <c r="AD5" t="n">
-        <v>734729.1078412693</v>
+        <v>984792.0920013548</v>
       </c>
       <c r="AE5" t="n">
-        <v>1005288.779309001</v>
+        <v>1347435.986237091</v>
       </c>
       <c r="AF5" t="n">
         <v>3.63433927502109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.86979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>909345.4291434123</v>
+        <v>1218838.586848907</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>731.9021133099794</v>
+        <v>981.9650974700648</v>
       </c>
       <c r="AB6" t="n">
-        <v>1001.420760673093</v>
+        <v>1343.567967601183</v>
       </c>
       <c r="AC6" t="n">
-        <v>905.8465687773175</v>
+        <v>1215.339726482812</v>
       </c>
       <c r="AD6" t="n">
-        <v>731902.1133099794</v>
+        <v>981965.0974700649</v>
       </c>
       <c r="AE6" t="n">
-        <v>1001420.760673093</v>
+        <v>1343567.967601183</v>
       </c>
       <c r="AF6" t="n">
         <v>3.648745514463639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.66145833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>905846.5687773175</v>
+        <v>1215339.726482812</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1286.574046302569</v>
+        <v>1656.452044178704</v>
       </c>
       <c r="AB2" t="n">
-        <v>1760.347369792203</v>
+        <v>2266.43076435194</v>
       </c>
       <c r="AC2" t="n">
-        <v>1592.342287482286</v>
+        <v>2050.125793157746</v>
       </c>
       <c r="AD2" t="n">
-        <v>1286574.046302569</v>
+        <v>1656452.044178704</v>
       </c>
       <c r="AE2" t="n">
-        <v>1760347.369792203</v>
+        <v>2266430.76435194</v>
       </c>
       <c r="AF2" t="n">
         <v>2.251763795354852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1592342.287482286</v>
+        <v>2050125.793157746</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>975.1944397154809</v>
+        <v>1257.480654903614</v>
       </c>
       <c r="AB3" t="n">
-        <v>1334.304054961023</v>
+        <v>1720.540508170311</v>
       </c>
       <c r="AC3" t="n">
-        <v>1206.959948663045</v>
+        <v>1556.334536864305</v>
       </c>
       <c r="AD3" t="n">
-        <v>975194.4397154809</v>
+        <v>1257480.654903614</v>
       </c>
       <c r="AE3" t="n">
-        <v>1334304.054961023</v>
+        <v>1720540.508170311</v>
       </c>
       <c r="AF3" t="n">
         <v>2.820946192979807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1206959.948663045</v>
+        <v>1556334.536864305</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>875.2590006127783</v>
+        <v>1147.807875978094</v>
       </c>
       <c r="AB4" t="n">
-        <v>1197.567978340292</v>
+        <v>1570.481373622887</v>
       </c>
       <c r="AC4" t="n">
-        <v>1083.273771284709</v>
+        <v>1420.59683550877</v>
       </c>
       <c r="AD4" t="n">
-        <v>875259.0006127784</v>
+        <v>1147807.875978095</v>
       </c>
       <c r="AE4" t="n">
-        <v>1197567.978340293</v>
+        <v>1570481.373622887</v>
       </c>
       <c r="AF4" t="n">
         <v>3.042053839654135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1083273.771284709</v>
+        <v>1420596.83550877</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>829.5211491348248</v>
+        <v>1092.333695707181</v>
       </c>
       <c r="AB5" t="n">
-        <v>1134.987432136559</v>
+        <v>1494.579152828115</v>
       </c>
       <c r="AC5" t="n">
-        <v>1026.665824578311</v>
+        <v>1351.938616137215</v>
       </c>
       <c r="AD5" t="n">
-        <v>829521.1491348248</v>
+        <v>1092333.695707181</v>
       </c>
       <c r="AE5" t="n">
-        <v>1134987.432136559</v>
+        <v>1494579.152828115</v>
       </c>
       <c r="AF5" t="n">
         <v>3.150469534439841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.97916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1026665.824578311</v>
+        <v>1351938.616137215</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>796.6696394387839</v>
+        <v>1049.780022636961</v>
       </c>
       <c r="AB6" t="n">
-        <v>1090.038547264115</v>
+        <v>1436.35533999788</v>
       </c>
       <c r="AC6" t="n">
-        <v>986.0067981919372</v>
+        <v>1299.271602285863</v>
       </c>
       <c r="AD6" t="n">
-        <v>796669.6394387839</v>
+        <v>1049780.022636961</v>
       </c>
       <c r="AE6" t="n">
-        <v>1090038.547264115</v>
+        <v>1436355.33999788</v>
       </c>
       <c r="AF6" t="n">
         <v>3.234108092482178e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>986006.7981919372</v>
+        <v>1299271.602285863</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>769.7811749359324</v>
+        <v>1022.857392715329</v>
       </c>
       <c r="AB7" t="n">
-        <v>1053.248563895981</v>
+        <v>1399.518609996497</v>
       </c>
       <c r="AC7" t="n">
-        <v>952.7279992013911</v>
+        <v>1265.950518095137</v>
       </c>
       <c r="AD7" t="n">
-        <v>769781.1749359324</v>
+        <v>1022857.392715329</v>
       </c>
       <c r="AE7" t="n">
-        <v>1053248.563895981</v>
+        <v>1399518.609996497</v>
       </c>
       <c r="AF7" t="n">
         <v>3.278191272322537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.94791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>952727.9992013911</v>
+        <v>1265950.518095137</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>768.8198897050589</v>
+        <v>1021.896107484455</v>
       </c>
       <c r="AB8" t="n">
-        <v>1051.933291034188</v>
+        <v>1398.203337134705</v>
       </c>
       <c r="AC8" t="n">
-        <v>951.5382541355311</v>
+        <v>1264.760773029277</v>
       </c>
       <c r="AD8" t="n">
-        <v>768819.8897050589</v>
+        <v>1021896.107484455</v>
       </c>
       <c r="AE8" t="n">
-        <v>1051933.291034188</v>
+        <v>1398203.337134705</v>
       </c>
       <c r="AF8" t="n">
         <v>3.285800494520374e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.84375</v>
       </c>
       <c r="AH8" t="n">
-        <v>951538.2541355311</v>
+        <v>1264760.773029277</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>673.3113297608713</v>
+        <v>953.1285835943806</v>
       </c>
       <c r="AB2" t="n">
-        <v>921.2542657782626</v>
+        <v>1304.112577139266</v>
       </c>
       <c r="AC2" t="n">
-        <v>833.3310516408673</v>
+        <v>1179.649903110592</v>
       </c>
       <c r="AD2" t="n">
-        <v>673311.3297608714</v>
+        <v>953128.5835943806</v>
       </c>
       <c r="AE2" t="n">
-        <v>921254.2657782626</v>
+        <v>1304112.577139266</v>
       </c>
       <c r="AF2" t="n">
         <v>6.742779172319642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.93229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>833331.0516408673</v>
+        <v>1179649.903110592</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>823.7726233103405</v>
+        <v>1106.963362869434</v>
       </c>
       <c r="AB2" t="n">
-        <v>1127.122045496439</v>
+        <v>1514.596108854874</v>
       </c>
       <c r="AC2" t="n">
-        <v>1019.551099399985</v>
+        <v>1370.045181974754</v>
       </c>
       <c r="AD2" t="n">
-        <v>823772.6233103405</v>
+        <v>1106963.362869434</v>
       </c>
       <c r="AE2" t="n">
-        <v>1127122.045496439</v>
+        <v>1514596.108854874</v>
       </c>
       <c r="AF2" t="n">
         <v>3.808893500752177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1019551.099399985</v>
+        <v>1370045.181974754</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>697.6477377726667</v>
+        <v>943.0328915007785</v>
       </c>
       <c r="AB3" t="n">
-        <v>954.5524128665485</v>
+        <v>1290.299205826299</v>
       </c>
       <c r="AC3" t="n">
-        <v>863.4512703052901</v>
+        <v>1167.154860568545</v>
       </c>
       <c r="AD3" t="n">
-        <v>697647.7377726667</v>
+        <v>943032.8915007785</v>
       </c>
       <c r="AE3" t="n">
-        <v>954552.4128665485</v>
+        <v>1290299.205826299</v>
       </c>
       <c r="AF3" t="n">
         <v>4.310008979342238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.26041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>863451.2703052901</v>
+        <v>1167154.860568545</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>683.2746352337871</v>
+        <v>928.7271087696033</v>
       </c>
       <c r="AB4" t="n">
-        <v>934.8864998763217</v>
+        <v>1270.725402766913</v>
       </c>
       <c r="AC4" t="n">
-        <v>845.6622444495682</v>
+        <v>1149.449153801143</v>
       </c>
       <c r="AD4" t="n">
-        <v>683274.6352337871</v>
+        <v>928727.1087696033</v>
       </c>
       <c r="AE4" t="n">
-        <v>934886.4998763218</v>
+        <v>1270725.402766913</v>
       </c>
       <c r="AF4" t="n">
         <v>4.340367012485038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.89583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>845662.2444495682</v>
+        <v>1149449.153801142</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>966.7458204421431</v>
+        <v>1272.435823976492</v>
       </c>
       <c r="AB2" t="n">
-        <v>1322.744281344465</v>
+        <v>1741.002830271316</v>
       </c>
       <c r="AC2" t="n">
-        <v>1196.503423616208</v>
+        <v>1574.84396366304</v>
       </c>
       <c r="AD2" t="n">
-        <v>966745.8204421431</v>
+        <v>1272435.823976492</v>
       </c>
       <c r="AE2" t="n">
-        <v>1322744.281344465</v>
+        <v>1741002.830271316</v>
       </c>
       <c r="AF2" t="n">
         <v>3.120597685415462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1196503.423616208</v>
+        <v>1574843.96366304</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.4727933730487</v>
+        <v>1043.422222580567</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.718528506991</v>
+        <v>1427.656317474379</v>
       </c>
       <c r="AC3" t="n">
-        <v>972.1489005232111</v>
+        <v>1291.40280226285</v>
       </c>
       <c r="AD3" t="n">
-        <v>785472.7933730488</v>
+        <v>1043422.222580567</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074718.528506991</v>
+        <v>1427656.317474379</v>
       </c>
       <c r="AF3" t="n">
         <v>3.654497170752468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>972148.9005232111</v>
+        <v>1291402.80226285</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.3911362792253</v>
+        <v>969.1975151995756</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.3533752400137</v>
+        <v>1326.098798272724</v>
       </c>
       <c r="AC4" t="n">
-        <v>903.9764917083774</v>
+        <v>1199.537790156927</v>
       </c>
       <c r="AD4" t="n">
-        <v>730391.1362792253</v>
+        <v>969197.5151995756</v>
       </c>
       <c r="AE4" t="n">
-        <v>999353.3752400137</v>
+        <v>1326098.798272724</v>
       </c>
       <c r="AF4" t="n">
         <v>3.845720429337591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>903976.4917083774</v>
+        <v>1199537.790156927</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>712.5894100217519</v>
+        <v>960.9497258613673</v>
       </c>
       <c r="AB5" t="n">
-        <v>974.9962680178038</v>
+        <v>1314.813809033402</v>
       </c>
       <c r="AC5" t="n">
-        <v>881.9439926140404</v>
+        <v>1189.329824452024</v>
       </c>
       <c r="AD5" t="n">
-        <v>712589.4100217519</v>
+        <v>960949.7258613673</v>
       </c>
       <c r="AE5" t="n">
-        <v>974996.2680178038</v>
+        <v>1314813.809033402</v>
       </c>
       <c r="AF5" t="n">
         <v>3.884305757657826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.66145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>881943.9926140404</v>
+        <v>1189329.824452024</v>
       </c>
     </row>
   </sheetData>
